--- a/He3_Calibration/NEUTRON_CALIBRATION_DATA_CYLINDRICAL_HE3DET02.xlsx
+++ b/He3_Calibration/NEUTRON_CALIBRATION_DATA_CYLINDRICAL_HE3DET02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/Box Sync/Research/neutron_detector/neutron_calibration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nick/programs/openmc/CMFX-Neutronics/CentrifugalMirrorNeutronics/He3_Calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06D4989-A406-B442-9F9E-2DFEBFCBBD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC547E-F130-944B-8AAB-12E7AA0984A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="940" windowWidth="25440" windowHeight="15400" xr2:uid="{CD9A912C-0491-483D-ABDF-F8CD2AE652CA}"/>
+    <workbookView xWindow="-32800" yWindow="2980" windowWidth="25440" windowHeight="15400" xr2:uid="{CD9A912C-0491-483D-ABDF-F8CD2AE652CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Counts</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>Radius of HDPE</t>
+  </si>
+  <si>
+    <t>Activity Uncertainty (n/s)</t>
+  </si>
+  <si>
+    <t>Uncertainty (Years)</t>
   </si>
 </sst>
 </file>
@@ -730,11 +736,10 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet1!$D$2:$D$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+              <c:strCache>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -765,8 +770,11 @@
                 <c:pt idx="9">
                   <c:v>69</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="10">
+                  <c:v>BACKGROUND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2117,13 +2125,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -2159,7 +2167,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -2191,9 +2199,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2231,7 +2239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2337,7 +2345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2479,7 +2487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2487,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226B8A06-B509-4D14-B442-74AB340838A4}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2499,16 +2507,18 @@
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.83203125" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2537,28 +2547,34 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2588,36 +2604,43 @@
         <v>100</v>
       </c>
       <c r="K2">
-        <f>Q2*0.5^((I2-P2)/365/R2)</f>
-        <v>2923.1545912933152</v>
-      </c>
-      <c r="L2" t="b">
+        <f>R2*0.5^((I2-Q2)/365.25/S2)</f>
+        <v>2931.9457010748142</v>
+      </c>
+      <c r="L2">
+        <f>K2 * (I2-Q2) / 365.25 * LOG(2) * T2 / S2^2</f>
+        <v>1.0060249401583063</v>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="M2">
-        <f>SUM(T2:T5)*S2</f>
+      <c r="N2">
+        <f>SUM(V2:V5)*U2</f>
         <v>8.5915500000000016</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>43227.638194444444</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>13070</v>
       </c>
-      <c r="R2">
-        <v>2.645</v>
-      </c>
       <c r="S2">
+        <v>2.6484999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="U2">
         <v>2.54</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.75</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2640,15 +2663,15 @@
         <f t="shared" ref="G3:G6" si="0">E3*D3^2</f>
         <v>37685</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="T3">
+      <c r="P3" s="1"/>
+      <c r="V3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2670,14 +2693,14 @@
         <f t="shared" si="0"/>
         <v>93500</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>6.25E-2</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2700,14 +2723,14 @@
         <f t="shared" si="0"/>
         <v>144855</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>2.5</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2731,7 +2754,7 @@
         <v>183120</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2754,9 +2777,9 @@
         <f>E7*D7^2</f>
         <v>256859.99999999997</v>
       </c>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2780,7 +2803,7 @@
         <v>327360</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2804,7 +2827,7 @@
         <v>431500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2828,7 +2851,7 @@
         <v>488160</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2852,15 +2875,26 @@
         <v>609408</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>888</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>AVERAGE(B52:B56)</f>
+        <v>7.2</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.STDEV.P(B52:B56)</f>
+        <v>1.9390719429665315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2868,7 +2902,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2876,7 +2910,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2884,7 +2918,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10</v>
       </c>
@@ -3214,10 +3248,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P1" r:id="rId1" xr:uid="{C10DCFE2-8FF9-9549-928D-9925DCDD3C4D}"/>
-    <hyperlink ref="R1" r:id="rId2" xr:uid="{08BCC6AF-BDCF-BA4F-8A24-7E756961CFC0}"/>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{C10DCFE2-8FF9-9549-928D-9925DCDD3C4D}"/>
+    <hyperlink ref="S1" r:id="rId2" xr:uid="{59CBC70F-05CA-994A-A0DC-F3069CCC1275}"/>
+    <hyperlink ref="T1" r:id="rId3" display="Uncertainty" xr:uid="{D8C0CBE3-41BD-D54F-B118-3F7A40CD1F58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>